--- a/Diagrammes/Dictionnaire_de_donnees.xlsx
+++ b/Diagrammes/Dictionnaire_de_donnees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoco\Documents\GitHub\Projet-POO-CPP-CLI\Diagrammes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6225E587-CE78-4886-B49A-8A88C41E8873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CB74AA-1A72-4DE2-87B7-EFB70A1F76CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8130" windowWidth="29040" windowHeight="15720" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Entity</t>
   </si>
@@ -69,6 +69,63 @@
   </si>
   <si>
     <t>Primary Key - Identity (1,1)</t>
+  </si>
+  <si>
+    <t>People's Last Name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>Customer :</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>Customer's birth date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>People's First Name</t>
+  </si>
+  <si>
+    <t>first_order_date</t>
+  </si>
+  <si>
+    <t>Customer's first order date</t>
+  </si>
+  <si>
+    <t>Staff :</t>
+  </si>
+  <si>
+    <t>hiring_date</t>
+  </si>
+  <si>
+    <t>Staff's hiring date</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Address :</t>
   </si>
 </sst>
 </file>
@@ -420,14 +477,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA4FB3-8ECE-4430-97E3-603801167D9B}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -471,6 +530,157 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>225</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>225</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Diagrammes/Dictionnaire_de_donnees.xlsx
+++ b/Diagrammes/Dictionnaire_de_donnees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoco\Documents\GitHub\Projet-POO-CPP-CLI\Diagrammes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CB74AA-1A72-4DE2-87B7-EFB70A1F76CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB28EF3-7B71-4ADF-9069-168D84D75FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -483,14 +483,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -547,7 +547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -581,7 +581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -612,7 +612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -623,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -631,7 +631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -639,7 +639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -653,7 +653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>28</v>
       </c>

--- a/Diagrammes/Dictionnaire_de_donnees.xlsx
+++ b/Diagrammes/Dictionnaire_de_donnees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoco\Documents\GitHub\Projet-POO-CPP-CLI\Diagrammes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\OneDrive\Documents\GitHub\Projet-POO-CPP-CLI\Diagrammes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB28EF3-7B71-4ADF-9069-168D84D75FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCE3CDA-25D9-418D-BA61-B29F7215311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
   <si>
     <t>Entity</t>
   </si>
@@ -126,6 +126,117 @@
   </si>
   <si>
     <t>Address :</t>
+  </si>
+  <si>
+    <t>Customers :</t>
+  </si>
+  <si>
+    <t>Orders :</t>
+  </si>
+  <si>
+    <t>reference_order</t>
+  </si>
+  <si>
+    <t>delivery_date</t>
+  </si>
+  <si>
+    <t>issue_date</t>
+  </si>
+  <si>
+    <t>payment_date</t>
+  </si>
+  <si>
+    <t>payment_method</t>
+  </si>
+  <si>
+    <t>Items :</t>
+  </si>
+  <si>
+    <t>reference_item</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quantity_in_item</t>
+  </si>
+  <si>
+    <t>price_ht</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>quantity_in_stock</t>
+  </si>
+  <si>
+    <t>max_in_stock</t>
+  </si>
+  <si>
+    <t>tva_rate</t>
+  </si>
+  <si>
+    <t>rate_variability</t>
+  </si>
+  <si>
+    <t>Cities :</t>
+  </si>
+  <si>
+    <t>idCity</t>
+  </si>
+  <si>
+    <t>Adress's ID</t>
+  </si>
+  <si>
+    <t>City's ID</t>
+  </si>
+  <si>
+    <t>City's Postal Code</t>
+  </si>
+  <si>
+    <t>City's name</t>
+  </si>
+  <si>
+    <t>Customers' Birth Date</t>
+  </si>
+  <si>
+    <t>Order's Reference</t>
+  </si>
+  <si>
+    <t>Items's Reference</t>
+  </si>
+  <si>
+    <t>Order's Delivery Date</t>
+  </si>
+  <si>
+    <t>Order's Issue Date</t>
+  </si>
+  <si>
+    <t>Order's Payment Date</t>
+  </si>
+  <si>
+    <t>Order's Payment Method</t>
+  </si>
+  <si>
+    <t>Item's name</t>
+  </si>
+  <si>
+    <t>Item's Price ht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item's Quantity </t>
+  </si>
+  <si>
+    <t>Item's Quantity Stock</t>
+  </si>
+  <si>
+    <t>Item's Max Stock</t>
+  </si>
+  <si>
+    <t>TVA Rate</t>
+  </si>
+  <si>
+    <t>Item's Rate Variability</t>
   </si>
 </sst>
 </file>
@@ -477,20 +588,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA4FB3-8ECE-4430-97E3-603801167D9B}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -530,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -547,7 +658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -564,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -581,7 +692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -595,7 +706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -612,37 +723,64 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>26</v>
       </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
@@ -653,31 +791,280 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>28</v>
+      <c r="C13" t="s">
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
         <v>225</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>20.2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>4.2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>3.2</v>
+      </c>
+      <c r="F28" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Diagrammes/Dictionnaire_de_donnees.xlsx
+++ b/Diagrammes/Dictionnaire_de_donnees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\OneDrive\Documents\GitHub\Projet-POO-CPP-CLI\Diagrammes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCE3CDA-25D9-418D-BA61-B29F7215311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62992621-B7D5-430F-9A8A-2EA770926370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
+    <workbookView xWindow="13668" yWindow="2328" windowWidth="17280" windowHeight="8964" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
   <si>
     <t>Entity</t>
   </si>
@@ -237,6 +237,27 @@
   </si>
   <si>
     <t>Item's Rate Variability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password </t>
+  </si>
+  <si>
+    <t>Staff's Password</t>
+  </si>
+  <si>
+    <t>Contain :</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Have :</t>
+  </si>
+  <si>
+    <t>billing</t>
+  </si>
+  <si>
+    <t>logical</t>
   </si>
 </sst>
 </file>
@@ -588,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA4FB3-8ECE-4430-97E3-603801167D9B}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,45 +745,42 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -776,84 +794,84 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
         <v>225</v>
       </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
         <v>225</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -861,44 +879,47 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -909,10 +930,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -923,30 +944,24 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -959,11 +974,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -972,18 +990,21 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -991,16 +1012,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24">
-        <v>20.2</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -1008,13 +1026,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>20.2</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -1022,10 +1043,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1036,16 +1057,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
@@ -1053,18 +1071,74 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
       </c>
       <c r="E28">
+        <v>4.2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29">
         <v>3.2</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Diagrammes/Dictionnaire_de_donnees.xlsx
+++ b/Diagrammes/Dictionnaire_de_donnees.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\OneDrive\Documents\GitHub\Projet-POO-CPP-CLI\Diagrammes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62992621-B7D5-430F-9A8A-2EA770926370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DACB2A-BF4B-48B3-B061-CAB1BCB4EB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13668" yWindow="2328" windowWidth="17280" windowHeight="8964" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
   <si>
     <t>Entity</t>
   </si>
@@ -59,9 +60,6 @@
     <t>People :</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>People's ID</t>
   </si>
   <si>
@@ -128,9 +126,6 @@
     <t>Address :</t>
   </si>
   <si>
-    <t>Customers :</t>
-  </si>
-  <si>
     <t>Orders :</t>
   </si>
   <si>
@@ -197,9 +192,6 @@
     <t>City's name</t>
   </si>
   <si>
-    <t>Customers' Birth Date</t>
-  </si>
-  <si>
     <t>Order's Reference</t>
   </si>
   <si>
@@ -258,6 +250,12 @@
   </si>
   <si>
     <t>logical</t>
+  </si>
+  <si>
+    <t>idPeople</t>
+  </si>
+  <si>
+    <t>idAdress</t>
   </si>
 </sst>
 </file>
@@ -293,8 +291,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA4FB3-8ECE-4430-97E3-603801167D9B}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,381 +651,381 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>225</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
       <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>225</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
+      <c r="E24">
+        <v>20.2</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1029,120 +1033,415 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25">
-        <v>20.2</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>4.2</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
       <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>70</v>
       </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B01F5-057C-48C4-B6FC-3DBA0201B8EA}">
+  <dimension ref="B1:BE31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:57" ht="76.8" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+    </row>
+    <row r="2" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Diagrammes/Dictionnaire_de_donnees.xlsx
+++ b/Diagrammes/Dictionnaire_de_donnees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\OneDrive\Documents\GitHub\Projet-POO-CPP-CLI\Diagrammes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DACB2A-BF4B-48B3-B061-CAB1BCB4EB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A251942-1B48-4D71-8C7B-F9977360C04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
   <si>
     <t>Entity</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>idAdress</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
   </si>
 </sst>
 </file>
@@ -615,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA4FB3-8ECE-4430-97E3-603801167D9B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -898,7 +901,7 @@
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -977,7 +980,7 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1138,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B01F5-057C-48C4-B6FC-3DBA0201B8EA}">
   <dimension ref="B1:BE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/Diagrammes/Dictionnaire_de_donnees.xlsx
+++ b/Diagrammes/Dictionnaire_de_donnees.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoco\Documents\GitHub\Projet-POO-CPP-CLI\Diagrammes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\OneDrive\Documents\GitHub\Projet-POO-CPP-CLI\Diagrammes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB28EF3-7B71-4ADF-9069-168D84D75FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A251942-1B48-4D71-8C7B-F9977360C04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
   <si>
     <t>Entity</t>
   </si>
@@ -59,9 +60,6 @@
     <t>People :</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>People's ID</t>
   </si>
   <si>
@@ -126,6 +124,141 @@
   </si>
   <si>
     <t>Address :</t>
+  </si>
+  <si>
+    <t>Orders :</t>
+  </si>
+  <si>
+    <t>reference_order</t>
+  </si>
+  <si>
+    <t>delivery_date</t>
+  </si>
+  <si>
+    <t>issue_date</t>
+  </si>
+  <si>
+    <t>payment_date</t>
+  </si>
+  <si>
+    <t>payment_method</t>
+  </si>
+  <si>
+    <t>Items :</t>
+  </si>
+  <si>
+    <t>reference_item</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quantity_in_item</t>
+  </si>
+  <si>
+    <t>price_ht</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>quantity_in_stock</t>
+  </si>
+  <si>
+    <t>max_in_stock</t>
+  </si>
+  <si>
+    <t>tva_rate</t>
+  </si>
+  <si>
+    <t>rate_variability</t>
+  </si>
+  <si>
+    <t>Cities :</t>
+  </si>
+  <si>
+    <t>idCity</t>
+  </si>
+  <si>
+    <t>Adress's ID</t>
+  </si>
+  <si>
+    <t>City's ID</t>
+  </si>
+  <si>
+    <t>City's Postal Code</t>
+  </si>
+  <si>
+    <t>City's name</t>
+  </si>
+  <si>
+    <t>Order's Reference</t>
+  </si>
+  <si>
+    <t>Items's Reference</t>
+  </si>
+  <si>
+    <t>Order's Delivery Date</t>
+  </si>
+  <si>
+    <t>Order's Issue Date</t>
+  </si>
+  <si>
+    <t>Order's Payment Date</t>
+  </si>
+  <si>
+    <t>Order's Payment Method</t>
+  </si>
+  <si>
+    <t>Item's name</t>
+  </si>
+  <si>
+    <t>Item's Price ht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item's Quantity </t>
+  </si>
+  <si>
+    <t>Item's Quantity Stock</t>
+  </si>
+  <si>
+    <t>Item's Max Stock</t>
+  </si>
+  <si>
+    <t>TVA Rate</t>
+  </si>
+  <si>
+    <t>Item's Rate Variability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password </t>
+  </si>
+  <si>
+    <t>Staff's Password</t>
+  </si>
+  <si>
+    <t>Contain :</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Have :</t>
+  </si>
+  <si>
+    <t>billing</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>idPeople</t>
+  </si>
+  <si>
+    <t>idAdress</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
   </si>
 </sst>
 </file>
@@ -161,8 +294,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,20 +616,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA4FB3-8ECE-4430-97E3-603801167D9B}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,178 +649,802 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>225</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>225</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>225</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>225</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>20.2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>4.2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>3.2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B01F5-057C-48C4-B6FC-3DBA0201B8EA}">
+  <dimension ref="B1:BE31"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:57" ht="76.8" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+    </row>
+    <row r="2" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Diagrammes/Dictionnaire_de_donnees.xlsx
+++ b/Diagrammes/Dictionnaire_de_donnees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\OneDrive\Documents\GitHub\Projet-POO-CPP-CLI\Diagrammes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A251942-1B48-4D71-8C7B-F9977360C04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B40DBC9-1697-4424-8E80-BC4C765F2367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1312170F-3ACC-4C73-A594-411FC8B4E343}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -317,6 +317,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CA88E211-B27A-4BA8-8267-32BBF6ED21C5}" name="Tableau2" displayName="Tableau2" ref="B2:G32" totalsRowShown="0">
+  <autoFilter ref="B2:G32" xr:uid="{CA88E211-B27A-4BA8-8267-32BBF6ED21C5}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B588AE40-4629-40B0-9166-55AE9072FD98}" name="Entity"/>
+    <tableColumn id="2" xr3:uid="{5B0A114B-6615-43D6-9800-B6FDEC6932A0}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{8CE4CC70-8944-4203-87A8-D40BE2986F38}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{E91D803C-9F3B-41B3-8B17-7521B420B53B}" name="Type"/>
+    <tableColumn id="5" xr3:uid="{B49765A8-506C-4D5C-91F8-2556014F0FB3}" name="Lenght"/>
+    <tableColumn id="6" xr3:uid="{1296984F-A98D-47F4-98CE-F7EA2678C2AF}" name="Constraint"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,533 +631,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA4FB3-8ECE-4430-97E3-603801167D9B}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>225</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="E15">
+      <c r="F16">
         <v>225</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="E16">
+      <c r="F17">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>16</v>
       </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="E20">
+      <c r="F21">
         <v>50</v>
       </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="E21">
+      <c r="F22">
         <v>50</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="E22">
+      <c r="F23">
         <v>50</v>
       </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
         <v>38</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
         <v>39</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
         <v>58</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E25" t="s">
         <v>40</v>
       </c>
-      <c r="E24">
+      <c r="F25">
         <v>20.2</v>
       </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D26" t="s">
         <v>60</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E27" t="s">
         <v>8</v>
       </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
         <v>43</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E28" t="s">
         <v>40</v>
       </c>
-      <c r="E27">
+      <c r="F28">
         <v>4.2</v>
       </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E29" t="s">
         <v>40</v>
       </c>
-      <c r="E28">
+      <c r="F29">
         <v>3.2</v>
       </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E31" t="s">
         <v>70</v>
       </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E32" t="s">
         <v>70</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G32" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B01F5-057C-48C4-B6FC-3DBA0201B8EA}">
-  <dimension ref="B1:BE31"/>
+  <dimension ref="B2:BE32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,89 +1169,81 @@
     <col min="3" max="7" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:57" ht="76.8" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+    <row r="2" spans="2:57" ht="76.8" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-    </row>
-    <row r="2" spans="2:57" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
     </row>
     <row r="3" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1241,7 +1251,7 @@
     </row>
     <row r="5" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1249,7 +1259,7 @@
     </row>
     <row r="6" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1257,7 +1267,7 @@
     </row>
     <row r="7" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1265,7 +1275,7 @@
     </row>
     <row r="8" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1273,20 +1283,20 @@
     </row>
     <row r="9" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1294,7 +1304,7 @@
     </row>
     <row r="12" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1302,20 +1312,20 @@
     </row>
     <row r="13" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1323,20 +1333,20 @@
     </row>
     <row r="16" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1344,7 +1354,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1352,7 +1362,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1360,20 +1370,20 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1381,7 +1391,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1389,7 +1399,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1397,7 +1407,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1405,7 +1415,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1413,7 +1423,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1421,7 +1431,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1429,7 +1439,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1437,9 +1447,17 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>1</v>
       </c>
     </row>
